--- a/Original Plot Work/Migration Rate Maps/Migration 1935.xlsx
+++ b/Original Plot Work/Migration Rate Maps/Migration 1935.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBY11\Documents\R_Work\Slow_Reveal_Graphs\Original Plot Work\Migration Rate Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RBY11\Documents\R_work\Slow_Reveal_Graphs\Original Plot Work\Migration Rate Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0581B152-E91C-44D1-BA1E-FCE565A7B1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF97386-0ECE-4D98-AF4C-B9E3243E0C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{DA0E77D7-1B92-4340-9A8D-E4AF89B9DC01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA0E77D7-1B92-4340-9A8D-E4AF89B9DC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,13 +325,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>Louisianna</t>
-  </si>
-  <si>
-    <t>Pennsylvannia</t>
-  </si>
-  <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC3D07F-35FF-460F-9A33-7A00C188A41D}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>95</v>
@@ -905,7 +905,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <v>2</v>
